--- a/Output_testing/R1_201907/Country/HKD/MN/UKRAINE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/UKRAINE_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>691.9200939999999</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>60.3048239879205</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1052.360668</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>64.15855557252276</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1583.859571</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>65.498970597171</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>638.778069</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>59.5738086285263</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>10.14685336803853</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>98.824573</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>8.613131100144637</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>207.51955</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>12.65170296260057</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>304.194621</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.57967240373267</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>85.99268600000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.019861776464579</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-50.04847539772565</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>42.919274</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.740662089023437</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>47.18571</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.876739020489449</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>70.81337499999999</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.92841818298514</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>44.781389</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.176408095196507</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>5.402377453647933</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>22.216627</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.936307085829888</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>22.264566</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.357388620123819</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>43.660747</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.805547686401247</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>43.934163</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.097393986793997</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>63.0335233145163</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>34.692199</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.023625087044967</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>39.51381</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.409011522242777</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>57.588944</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.381534713583599</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>30.741036</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.866974751612266</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-47.74706413073618</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>50.951998</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.440760281233973</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>62.364441</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.802130367768378</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>64.537431</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.668882628790802</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>24.146334</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.251938741491887</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-38.72784256526476</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>19.712156</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.718028003971266</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>14.034076</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.855605946073811</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>48.916114</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.022878272340133</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>22.181785</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.068720700912347</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>6.511276754243145</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>29.836857</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.600454048582312</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>30.767508</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.875781689558582</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>35.726792</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.477446701453335</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>17.808691</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.66087660338658</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-24.83581157734295</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>10.086933</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.8791343457398521</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>14.663123</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.8939566257736996</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>29.348336</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.213671863299234</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>14.313418</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.334899969385304</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-1.561808720228786</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>4.604262</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.401287969394152</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>4.636302</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.282658263999276</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>13.515717</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.5589293183509664</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>13.944781</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.300520094500473</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>69.68572056113376</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>141.60608</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.34178600111502</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>144.940184</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.836469408846884</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>165.982571</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.864047631891884</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>135.624133</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>12.64859665172976</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>65.97146014235223</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,575 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.663112</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>39.86358496452861</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.565696</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>32.41632552020061</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>29.14961155153152</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>83.77321237327973</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>79.19830451620773</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>7.338650385673656</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>7.430995200264054</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.795804</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>61.86907735617145</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.25882208287225</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-84.36939263894391</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.545219492224908</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.437571342779996</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.550317934556559</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.9679655438480194</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-82.05009582975349</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>4.487390293336318</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.943602864404157</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>20.24162991079399</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>23.73061424700991</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>17.52482384923236</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>16.34912921695998</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.019714674722766</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.502897887707077</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.08824729413166955</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>29.50801735907176</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1868,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>691.9200939999999</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>60.39238056900382</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1052.360668</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>64.22688789344451</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1583.859571</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>65.53382966966166</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>638.778069</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>59.60500384129554</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>10.14685336803853</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>98.824573</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>8.625636506208041</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>207.51955</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12.66517770839764</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>304.194621</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.58636740532175</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>85.99268600000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.024061294679987</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-50.04847539772565</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>42.919274</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.746093156753084</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>47.18571</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.879802902651416</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>70.81337499999999</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.929976710406151</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>44.781389</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.178595028383089</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>5.402377453647933</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>22.216627</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.939118410316908</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>22.264566</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.358834312190577</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>43.660747</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.806508613223635</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>43.934163</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.099539545054583</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>63.0335233145163</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>34.692199</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.028015088666602</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>39.51381</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.411577249400646</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>57.588944</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.382802185277626</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>30.741036</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.868476013482868</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-47.74706413073618</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>50.951998</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.447207821611727</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>62.364441</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.806179841609525</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>64.537431</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.670303029328061</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>24.146334</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.253117946075267</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-38.72784256526476</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>19.712156</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.720522409033509</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>14.034076</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.8565172125380879</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>48.891114</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.022920463342019</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>22.181785</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.069803965251337</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.511276754243145</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>29.836857</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.604229648123134</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>30.767508</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.877779498194489</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>35.726792</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.478233010325024</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>17.808691</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.661746304354487</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-24.83581157734295</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>10.086933</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.8804107610004507</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>14.663123</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8949087377796104</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>29.348336</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.214317789106569</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>14.313418</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.335598976038216</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-1.561808720228786</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>4.604262</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.4018705994443958</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>4.636302</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2829593102905216</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>13.515717</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.5592267849744555</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>13.944781</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.301201098485153</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>69.68572056113376</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>139.942627</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.21451502983833</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>143.195088</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>8.739375333502981</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>164.7213</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.815514339033053</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>135.062956</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>12.60285598689947</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>67.00231798743886</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2326,467 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>18.663898</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>15.14688455878919</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>30.11183</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>6.708898386650104</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>89.892443</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>20.09561447678679</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>35.875629</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>17.42103204055485</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-40.36098765659496</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>33.578055</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>16.30534121128616</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>34.039982</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>27.62550876227795</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>82.840878</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>18.4568999214886</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>24.55335</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>5.488944779413915</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>22.706996</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.02640750523847</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>16.29072717643638</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>4.273039</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.9552454191090851</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>22.312174</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>10.83468385037751</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>719.0379316002941</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>147.12541</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>32.77945663827921</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>187.988028</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>42.02505584300786</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>15.298456</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.428856289795465</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-91.86200516981859</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>EGGS, BIRDS', AND EGG YOLKS, FRESH, DRIED OR OTHERWISE PRESERVED, SWEETENED OR NOT; EGG ALBUMIN</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.452337</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.178659510433362</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>0.8225749999999999</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.1832692363897747</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4.795098</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.071952631061672</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>13.276313</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.44691342285413</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>201.901804637117</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>8.642483</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>7.013898827688517</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>41.46288</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>9.237905791108242</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>30.380538</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>6.791622953726725</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>9.612</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.667540741203818</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-31.84407097661448</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>8.833408</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>7.168846038308015</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>7.569383</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.686454174211156</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>13.28457</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.969789097954402</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>8.615591</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>4.183689346863186</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>14.3699616452162</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WOOD MANUFACTURES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.963842</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.437542866887722</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>19.420223</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>4.341425168089244</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>8.333913000000001</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>4.046907871530185</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-21.00385676581447</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>METALWORKING MACHINERY (OTHER THAN MACHINE-TOOLS), AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>3.852715</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.8583826837400005</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>2.321368</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.5189459183654581</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>5.735485</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.785123794014085</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>147.0734928714448</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>51.528622</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>41.81860021456851</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>133.084681</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>29.65119030124518</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>70.41502699999999</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>15.74140371248485</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>30.588245</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>14.85350392628215</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-43.82698224724282</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
